--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFCAEC-342E-43EF-8B20-B0D7FDAC4BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F6A3D8-3B61-4D38-8AE1-188894CB34EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>CREATE DATABASE WebContent;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USE WebContent;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3884538-1A3A-4B05-8DEE-35F24AA39F56}">
-  <dimension ref="B1:C57"/>
+  <dimension ref="B1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -571,246 +575,251 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B32" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C47" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C54" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
         <v>9</v>
       </c>
     </row>

--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F6A3D8-3B61-4D38-8AE1-188894CB34EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36A088-DE6B-4201-AAE2-1F64F6B90C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
   <sheets>
     <sheet name="create table" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -165,6 +165,77 @@
   </si>
   <si>
     <t>USE WebContent;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO users (region_id, icon_id, degree_id, user_name, password, mail) VALUES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>),</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taro_yamada'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>securepass123'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taro@example.com'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>'hanako_sato'</t>
+  </si>
+  <si>
+    <t>'jiro_tanaka'</t>
+  </si>
+  <si>
+    <t>'mysecretpass456'</t>
+  </si>
+  <si>
+    <t>'hiddenpass789'</t>
+  </si>
+  <si>
+    <t>'hanako@example.com'</t>
+  </si>
+  <si>
+    <t>'jiro@example.com'</t>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO region (region_name, link)VALUES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>('大分県大分市萩原'</t>
+    <rPh sb="1" eb="4">
+      <t>オオイタケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>オオイタシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハギワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,'https://www.city.oita.oita.jp/o150/kurashi/gomi/2025kareda/documents/r721.pdf'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -219,11 +290,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3884538-1A3A-4B05-8DEE-35F24AA39F56}">
   <dimension ref="B1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -831,64 +905,192 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD01381-B82C-4E9F-824D-31E945C94E41}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -904,7 +1106,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -948,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB8E881-365A-48BF-A017-DCA8AABF4ECD}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1083,42 +1285,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70C0CED-4059-40F2-AA9B-0FF80091D395}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E7" sqref="E7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36A088-DE6B-4201-AAE2-1F64F6B90C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08102C6F-3E5F-4D7B-9BE2-AEB1E8676E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
   <sheets>
     <sheet name="create table" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -238,12 +238,89 @@
     <t>,'https://www.city.oita.oita.jp/o150/kurashi/gomi/2025kareda/documents/r721.pdf'</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>CREATE DATABASE F3;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAME TABLE </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE scorePoint (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE iconStatus (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE garbage_type (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE region (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE icon (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CREATE TABLE degree (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.degree TO F3.degree;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.users TO F3.users,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.calendar TO F3.calendar,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.scorePoint TO F3.scorePoint,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.iconStatus TO F3.iconStatus,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.garbage_type TO F3.garbage_type,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.region TO F3.region,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent.icon TO F3.icon,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB名変更用</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +344,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,12 +362,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -290,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +464,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,85 +830,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3884538-1A3A-4B05-8DEE-35F24AA39F56}">
-  <dimension ref="B1:C58"/>
+  <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="H12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -729,7 +998,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
@@ -759,7 +1028,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
@@ -784,7 +1053,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
@@ -814,7 +1083,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
@@ -844,7 +1113,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
@@ -874,7 +1143,7 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
@@ -907,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD01381-B82C-4E9F-824D-31E945C94E41}">
   <dimension ref="B3:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>

--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08102C6F-3E5F-4D7B-9BE2-AEB1E8676E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A735CE-A666-4F4D-A84A-CAD385BAFECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -313,6 +313,10 @@
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DROP DATABASE WebContent;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -371,11 +375,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -384,7 +388,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -392,17 +396,17 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -412,7 +416,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -420,12 +424,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -434,18 +438,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -469,6 +473,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -479,9 +486,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -833,7 +837,7 @@
   <dimension ref="B1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -843,7 +847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>39</v>
       </c>
@@ -855,121 +859,130 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">

--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A735CE-A666-4F4D-A84A-CAD385BAFECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46316948-C1B8-4B30-B6E4-FBF6A59BBB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
+    <workbookView xWindow="8820" yWindow="624" windowWidth="12012" windowHeight="11076" firstSheet="5" activeTab="7" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
   <sheets>
     <sheet name="create table" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>DROP DATABASE WebContent;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE (mail)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY (user_id),</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mail VARCHAR(100),</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -460,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,9 +483,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -836,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3884538-1A3A-4B05-8DEE-35F24AA39F56}">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -859,130 +868,103 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="9"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
@@ -1187,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD01381-B82C-4E9F-824D-31E945C94E41}">
-  <dimension ref="B3:R12"/>
+  <dimension ref="B3:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1364,16 +1346,21 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1387,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2D7F9-B7E9-4171-9E67-BF09E59F3C56}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1570,7 +1557,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1632,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06D12B6-816B-4157-A7F3-0321E7F97F5D}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46316948-C1B8-4B30-B6E4-FBF6A59BBB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8A3568-799A-4560-8169-076BEBCEDF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="624" windowWidth="12012" windowHeight="11076" firstSheet="5" activeTab="7" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
+    <workbookView xWindow="-660" yWindow="720" windowWidth="12012" windowHeight="11076" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
   <sheets>
     <sheet name="create table" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -148,9 +148,6 @@
     <t>PRIMARY KEY (icon_id)</t>
   </si>
   <si>
-    <t>CREATE TABLE degree (</t>
-  </si>
-  <si>
     <t>degree_id INT AUTO_INCREMENT,</t>
   </si>
   <si>
@@ -158,14 +155,6 @@
   </si>
   <si>
     <t>PRIMARY KEY (degree_id)</t>
-  </si>
-  <si>
-    <t>CREATE DATABASE WebContent;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USE WebContent;</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>INSERT INTO users (region_id, icon_id, degree_id, user_name, password, mail) VALUES</t>
@@ -329,6 +318,10 @@
   </si>
   <si>
     <t>mail VARCHAR(100),</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USE F3;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -845,23 +838,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3884538-1A3A-4B05-8DEE-35F24AA39F56}">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
@@ -869,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -881,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L4" s="8"/>
     </row>
@@ -890,7 +883,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -899,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -908,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -917,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L8" s="8"/>
     </row>
@@ -926,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L9" s="8"/>
     </row>
@@ -935,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -944,7 +937,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L11" s="8"/>
     </row>
@@ -953,13 +946,13 @@
         <v>9</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H13" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -993,7 +986,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.45">
@@ -1023,7 +1016,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
@@ -1048,7 +1041,7 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.45">
@@ -1078,7 +1071,7 @@
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
@@ -1108,7 +1101,7 @@
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
@@ -1138,22 +1131,22 @@
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.45">
@@ -1164,6 +1157,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1172,7 +1166,7 @@
   <dimension ref="B3:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.45">
@@ -1202,43 +1196,43 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.45">
@@ -1246,43 +1240,43 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.45">
@@ -1290,43 +1284,43 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
         <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.45">
@@ -1346,17 +1340,17 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.45">
@@ -1367,6 +1361,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1374,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2D7F9-B7E9-4171-9E67-BF09E59F3C56}">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1412,6 +1407,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1420,7 +1416,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1462,6 +1458,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1470,7 +1467,7 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1503,6 +1500,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1511,7 +1509,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1549,6 +1547,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1557,7 +1556,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1595,23 +1594,24 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06D12B6-816B-4157-A7F3-0321E7F97F5D}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1658,6 +1658,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1666,29 +1667,29 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
@@ -1699,5 +1700,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/DB_TABLE構築.xlsx
+++ b/documents/DB_TABLE構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\F3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8A3568-799A-4560-8169-076BEBCEDF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5026DA-FA07-449E-B2D7-293EA77493A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-660" yWindow="720" windowWidth="12012" windowHeight="11076" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
+    <workbookView xWindow="6816" yWindow="1104" windowWidth="12012" windowHeight="11076" activeTab="1" xr2:uid="{3B64E8F6-D27E-42D4-A8B8-55BCB86F6C60}"/>
   </bookViews>
   <sheets>
     <sheet name="create table" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="79">
   <si>
     <t>CREATE TABLE users (</t>
   </si>
@@ -169,38 +169,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>taro_yamada'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>securepass123'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>taro@example.com'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>,</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>'hanako_sato'</t>
-  </si>
-  <si>
-    <t>'jiro_tanaka'</t>
-  </si>
-  <si>
-    <t>'mysecretpass456'</t>
-  </si>
-  <si>
-    <t>'hiddenpass789'</t>
-  </si>
-  <si>
-    <t>'hanako@example.com'</t>
-  </si>
-  <si>
-    <t>'jiro@example.com'</t>
   </si>
   <si>
     <t>);</t>
@@ -324,12 +294,51 @@
     <t>USE F3;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>dojouser1'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dojouser2'</t>
+  </si>
+  <si>
+    <t>dojouser3'</t>
+  </si>
+  <si>
+    <t>dojouser4'</t>
+  </si>
+  <si>
+    <t>dojouser5'</t>
+  </si>
+  <si>
+    <t>dojouser1@plusdojo.jp'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dojouser2@plusdojo.jp'</t>
+  </si>
+  <si>
+    <t>dojouser3@plusdojo.jp'</t>
+  </si>
+  <si>
+    <t>dojouser4@plusdojo.jp'</t>
+  </si>
+  <si>
+    <t>dojouser5@plusdojo.jp'</t>
+  </si>
+  <si>
+    <t>#SEplus2025SEplus'</t>
+  </si>
+  <si>
+    <t>#SEplus2025SEplus'</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +370,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +515,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -838,318 +856,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3884538-1A3A-4B05-8DEE-35F24AA39F56}">
   <dimension ref="B1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:12">
       <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="18.600000000000001" thickBot="1">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:12">
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12">
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12">
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12">
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12">
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12">
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12">
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12">
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1">
+      <c r="H13" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H13" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12">
       <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12">
       <c r="C16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="C17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="C28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3">
       <c r="C30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="B31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3">
       <c r="C37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
       <c r="C41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3">
       <c r="C42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3">
       <c r="C43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3">
       <c r="B45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3">
       <c r="B47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
       <c r="C48" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3">
       <c r="C49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3">
       <c r="C50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3">
       <c r="C51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3">
       <c r="B52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="C55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3">
       <c r="C56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3">
       <c r="C57" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3">
       <c r="B58" t="s">
         <v>9</v>
       </c>
@@ -1165,11 +1183,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD01381-B82C-4E9F-824D-31E945C94E41}">
   <dimension ref="B3:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="F3:R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.59765625" bestFit="1" customWidth="1"/>
@@ -1183,7 +1201,7 @@
     <col min="17" max="17" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:18">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:18">
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1202,40 +1220,40 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>40</v>
+        <v>40</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="R4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:18">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -1246,40 +1264,40 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="R5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:18">
       <c r="C6" t="s">
         <v>21</v>
       </c>
@@ -1290,70 +1308,148 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:18">
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="C11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
       <c r="C12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1373,33 +1469,33 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1419,38 +1515,38 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="26.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1470,29 +1566,29 @@
       <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
@@ -1512,34 +1608,34 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1559,53 +1655,53 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9">
       <c r="C3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9">
       <c r="C4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9">
       <c r="C5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1623,34 +1719,34 @@
       <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="C6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1670,29 +1766,29 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="C3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="C5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>9</v>
       </c>
